--- a/Accounts-Schedules/Walmart.xlsx
+++ b/Accounts-Schedules/Walmart.xlsx
@@ -89,10 +89,10 @@
     <t>Faris Khalifa</t>
   </si>
   <si>
+    <t>Off</t>
+  </si>
+  <si>
     <t>Eyad Khairy</t>
-  </si>
-  <si>
-    <t>Off</t>
   </si>
   <si>
     <t>Omar Mahdy</t>
@@ -697,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -820,6 +820,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -943,7 +956,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,34 +968,34 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,11 +1153,14 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="178" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1688,7 +1704,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B48"/>
+      <selection activeCell="K8" sqref="K8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2030,64 +2046,60 @@
       <c r="H8" s="15">
         <v>0.166666666666667</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="N8" s="25">
-        <v>0.125</v>
-      </c>
-      <c r="O8" s="25">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="P8" s="25">
-        <v>0.166666666666667</v>
-      </c>
+      <c r="I8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0.125</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.25" spans="1:16">
       <c r="A9" s="13">
         <v>10311872</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="14">
         <v>0.791666666666667</v>
       </c>
@@ -2126,16 +2138,16 @@
       <c r="H10" s="19">
         <v>0.166666666666667</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="27" t="s">
+      <c r="I10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="19">
@@ -2176,16 +2188,16 @@
       <c r="H11" s="19">
         <v>0.166666666666667</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="27" t="s">
+      <c r="I11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M11" s="19">
@@ -2226,16 +2238,16 @@
       <c r="H12" s="19">
         <v>0.166666666666667</v>
       </c>
-      <c r="I12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="27" t="s">
+      <c r="I12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M12" s="19">
@@ -2276,16 +2288,16 @@
       <c r="H13" s="19">
         <v>0.166666666666667</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="27" t="s">
+      <c r="I13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="19">
@@ -2326,16 +2338,16 @@
       <c r="H14" s="19">
         <v>0.166666666666667</v>
       </c>
-      <c r="I14" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="27" t="s">
+      <c r="I14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M14" s="19">
@@ -2376,16 +2388,16 @@
       <c r="H15" s="19">
         <v>0.166666666666667</v>
       </c>
-      <c r="I15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="27" t="s">
+      <c r="I15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M15" s="19">
@@ -2426,16 +2438,16 @@
       <c r="H16" s="19">
         <v>0.166666666666667</v>
       </c>
-      <c r="I16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="27" t="s">
+      <c r="I16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="19">
@@ -2476,16 +2488,16 @@
       <c r="H17" s="19">
         <v>0.166666666666667</v>
       </c>
-      <c r="I17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="27" t="s">
+      <c r="I17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M17" s="19">
@@ -2526,16 +2538,16 @@
       <c r="H18" s="19">
         <v>0.166666666666667</v>
       </c>
-      <c r="I18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="27" t="s">
+      <c r="I18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M18" s="19">
@@ -2576,16 +2588,16 @@
       <c r="H19" s="19">
         <v>0.166666666666667</v>
       </c>
-      <c r="I19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="27" t="s">
+      <c r="I19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="28" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="19">
@@ -2638,16 +2650,16 @@
       <c r="L20" s="19">
         <v>0.125</v>
       </c>
-      <c r="M20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P20" s="27" t="s">
+      <c r="M20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2688,16 +2700,16 @@
       <c r="L21" s="19">
         <v>0.125</v>
       </c>
-      <c r="M21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="27" t="s">
+      <c r="M21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2738,16 +2750,16 @@
       <c r="L22" s="19">
         <v>0.125</v>
       </c>
-      <c r="M22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P22" s="27" t="s">
+      <c r="M22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2788,16 +2800,16 @@
       <c r="L23" s="19">
         <v>0.125</v>
       </c>
-      <c r="M23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="27" t="s">
+      <c r="M23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2838,16 +2850,16 @@
       <c r="L24" s="19">
         <v>0.125</v>
       </c>
-      <c r="M24" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="27" t="s">
+      <c r="M24" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2888,16 +2900,16 @@
       <c r="L25" s="19">
         <v>0.125</v>
       </c>
-      <c r="M25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P25" s="27" t="s">
+      <c r="M25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2938,16 +2950,16 @@
       <c r="L26" s="19">
         <v>0.125</v>
       </c>
-      <c r="M26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P26" s="27" t="s">
+      <c r="M26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2988,16 +3000,16 @@
       <c r="L27" s="19">
         <v>0.125</v>
       </c>
-      <c r="M27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="27" t="s">
+      <c r="M27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3038,16 +3050,16 @@
       <c r="L28" s="19">
         <v>0.125</v>
       </c>
-      <c r="M28" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P28" s="27" t="s">
+      <c r="M28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3088,16 +3100,16 @@
       <c r="L29" s="19">
         <v>0.125</v>
       </c>
-      <c r="M29" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P29" s="27" t="s">
+      <c r="M29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3138,16 +3150,16 @@
       <c r="L30" s="19">
         <v>0.125</v>
       </c>
-      <c r="M30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P30" s="27" t="s">
+      <c r="M30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3188,16 +3200,16 @@
       <c r="L31" s="19">
         <v>0.125</v>
       </c>
-      <c r="M31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="27" t="s">
+      <c r="M31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3238,16 +3250,16 @@
       <c r="L32" s="19">
         <v>0.125</v>
       </c>
-      <c r="M32" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P32" s="27" t="s">
+      <c r="M32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3288,16 +3300,16 @@
       <c r="L33" s="19">
         <v>0.125</v>
       </c>
-      <c r="M33" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P33" s="27" t="s">
+      <c r="M33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3338,16 +3350,16 @@
       <c r="L34" s="19">
         <v>0.125</v>
       </c>
-      <c r="M34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P34" s="27" t="s">
+      <c r="M34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3388,16 +3400,16 @@
       <c r="L35" s="19">
         <v>0.125</v>
       </c>
-      <c r="M35" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P35" s="27" t="s">
+      <c r="M35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3438,16 +3450,16 @@
       <c r="L36" s="19">
         <v>0.125</v>
       </c>
-      <c r="M36" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P36" s="27" t="s">
+      <c r="M36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3488,16 +3500,16 @@
       <c r="L37" s="19">
         <v>0.125</v>
       </c>
-      <c r="M37" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P37" s="27" t="s">
+      <c r="M37" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3538,16 +3550,16 @@
       <c r="L38" s="19">
         <v>0.125</v>
       </c>
-      <c r="M38" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P38" s="27" t="s">
+      <c r="M38" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3588,16 +3600,16 @@
       <c r="L39" s="19">
         <v>0.125</v>
       </c>
-      <c r="M39" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P39" s="27" t="s">
+      <c r="M39" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P39" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3638,16 +3650,16 @@
       <c r="L40" s="19">
         <v>0.125</v>
       </c>
-      <c r="M40" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P40" s="27" t="s">
+      <c r="M40" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3688,16 +3700,16 @@
       <c r="L41" s="19">
         <v>0.125</v>
       </c>
-      <c r="M41" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P41" s="27" t="s">
+      <c r="M41" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3738,16 +3750,16 @@
       <c r="L42" s="19">
         <v>0.125</v>
       </c>
-      <c r="M42" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P42" s="27" t="s">
+      <c r="M42" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O42" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3788,16 +3800,16 @@
       <c r="L43" s="19">
         <v>0.125</v>
       </c>
-      <c r="M43" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P43" s="27" t="s">
+      <c r="M43" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3838,16 +3850,16 @@
       <c r="L44" s="19">
         <v>0.125</v>
       </c>
-      <c r="M44" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P44" s="27" t="s">
+      <c r="M44" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3888,16 +3900,16 @@
       <c r="L45" s="19">
         <v>0.125</v>
       </c>
-      <c r="M45" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P45" s="27" t="s">
+      <c r="M45" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O45" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P45" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3938,16 +3950,16 @@
       <c r="L46" s="19">
         <v>0.125</v>
       </c>
-      <c r="M46" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P46" s="27" t="s">
+      <c r="M46" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O46" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P46" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3988,16 +4000,16 @@
       <c r="L47" s="19">
         <v>0.125</v>
       </c>
-      <c r="M47" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O47" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P47" s="27" t="s">
+      <c r="M47" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N47" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O47" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4038,21 +4050,21 @@
       <c r="L48" s="19">
         <v>0.125</v>
       </c>
-      <c r="M48" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="O48" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="P48" s="27" t="s">
+      <c r="M48" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="28" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -4060,6 +4072,8 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="A2:A3"/>

--- a/Accounts-Schedules/Walmart.xlsx
+++ b/Accounts-Schedules/Walmart.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="79">
   <si>
     <t>Schedule DB</t>
   </si>
@@ -249,27 +249,6 @@
   </si>
   <si>
     <t>Esraa Samy</t>
-  </si>
-  <si>
-    <t>Monday, November 3, 2025</t>
-  </si>
-  <si>
-    <t>Tuesday, November 4, 2025</t>
-  </si>
-  <si>
-    <t>Wednesday, November 5, 2025</t>
-  </si>
-  <si>
-    <t>Thursday, November 6, 2025</t>
-  </si>
-  <si>
-    <t>Friday, November 7, 2025</t>
-  </si>
-  <si>
-    <t>Saturday, November 8, 2025</t>
-  </si>
-  <si>
-    <t>Sunday, November 9, 2025</t>
   </si>
   <si>
     <t>From</t>
@@ -294,14 +273,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="179" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1155,7 +1133,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,7 +1145,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1176,10 +1154,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1725,13 +1703,9 @@
   <cols>
     <col min="1" max="1" width="10.4545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.5454545454545" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6363636363636" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.2727272727273" style="2" customWidth="1"/>
-    <col min="7" max="8" width="13.2727272727273" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.7272727272727" style="2" customWidth="1"/>
-    <col min="11" max="12" width="11.1818181818182" style="2" customWidth="1"/>
-    <col min="13" max="14" width="11.8181818181818" style="2" customWidth="1"/>
-    <col min="15" max="16" width="11.1818181818182" style="2" customWidth="1"/>
+    <col min="3" max="12" width="9.18181818181818" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9.36363636363636" style="2" customWidth="1"/>
+    <col min="15" max="16" width="9.18181818181818" style="2" customWidth="1"/>
     <col min="17" max="17" width="11.0909090909091" style="2"/>
     <col min="18" max="19" width="12" style="2"/>
     <col min="20" max="20" width="11.0909090909091" style="2"/>
@@ -5189,87 +5163,87 @@
       <c r="B71" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>73</v>
+      <c r="C71" s="12">
+        <v>45964</v>
       </c>
       <c r="D71" s="12"/>
-      <c r="E71" s="12" t="s">
-        <v>74</v>
+      <c r="E71" s="12">
+        <v>45965</v>
       </c>
       <c r="F71" s="12"/>
-      <c r="G71" s="12" t="s">
-        <v>75</v>
+      <c r="G71" s="12">
+        <v>45966</v>
       </c>
       <c r="H71" s="12"/>
-      <c r="I71" s="12" t="s">
-        <v>76</v>
+      <c r="I71" s="12">
+        <v>45967</v>
       </c>
       <c r="J71" s="12"/>
-      <c r="K71" s="12" t="s">
-        <v>77</v>
+      <c r="K71" s="12">
+        <v>45968</v>
       </c>
       <c r="L71" s="12"/>
-      <c r="M71" s="12" t="s">
-        <v>78</v>
+      <c r="M71" s="12">
+        <v>45969</v>
       </c>
       <c r="N71" s="12"/>
-      <c r="O71" s="12" t="s">
-        <v>79</v>
+      <c r="O71" s="12">
+        <v>45970</v>
       </c>
       <c r="P71" s="12"/>
     </row>
-    <row r="72" ht="15.25" spans="1:16">
+    <row r="72" spans="1:16">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N72" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P72" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" ht="15.25" spans="1:16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="14">
         <v>10238619</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C73" s="16">
         <v>0.666666666666667</v>
@@ -5314,12 +5288,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" ht="15.25" spans="1:16">
+    <row r="74" spans="1:16">
       <c r="A74" s="14">
         <v>10282876</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C74" s="16">
         <v>0.666666666666667</v>
@@ -5364,12 +5338,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" ht="15.25" spans="1:16">
+    <row r="75" spans="1:16">
       <c r="A75" s="14">
         <v>10266290</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C75" s="16">
         <v>0.666666666666667</v>
@@ -5414,7 +5388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" ht="15.25" spans="1:16">
+    <row r="76" spans="1:16">
       <c r="A76" s="14">
         <v>10285481</v>
       </c>
@@ -5464,12 +5438,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" ht="15.25" spans="1:16">
+    <row r="77" spans="1:16">
       <c r="A77" s="17">
         <v>10298710</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C77" s="16">
         <v>0.666666666666667</v>

--- a/Accounts-Schedules/Walmart.xlsx
+++ b/Accounts-Schedules/Walmart.xlsx
@@ -5192,7 +5192,7 @@
       </c>
       <c r="P71" s="12"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" ht="15.25" spans="1:16">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="13" t="s">
@@ -5238,7 +5238,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" ht="15.25" spans="1:16">
       <c r="A73" s="14">
         <v>10238619</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" ht="15.25" spans="1:16">
       <c r="A74" s="14">
         <v>10282876</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" ht="15.25" spans="1:16">
       <c r="A75" s="14">
         <v>10266290</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" ht="15.25" spans="1:16">
       <c r="A76" s="14">
         <v>10285481</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" ht="15.25" spans="1:16">
       <c r="A77" s="17">
         <v>10298710</v>
       </c>
@@ -5464,16 +5464,16 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="I77" s="16">
-        <v>0.666666666666667</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="J77" s="16">
-        <v>0.0416666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="K77" s="16">
-        <v>0.666666666666667</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="L77" s="16">
-        <v>0.0416666666666667</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="M77" s="19" t="s">
         <v>6</v>

--- a/Accounts-Schedules/Walmart.xlsx
+++ b/Accounts-Schedules/Walmart.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="140">
   <si>
     <t>CIM</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>Mohamed Magdy Kadry</t>
+  </si>
+  <si>
+    <t>Yusuf Abdallah</t>
   </si>
   <si>
     <t>Mon
@@ -424,16 +427,7 @@
     <t>To</t>
   </si>
   <si>
-    <t>Malak Anton Mahana</t>
-  </si>
-  <si>
-    <t>Fayad Hamdi</t>
-  </si>
-  <si>
     <t>Faris Khalifa</t>
-  </si>
-  <si>
-    <t>Eyad Khairy</t>
   </si>
   <si>
     <t>Aaya Mohamed Elsiddig</t>
@@ -741,7 +735,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,6 +769,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,6 +1234,36 @@
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1299,36 +1329,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1456,7 +1456,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1480,16 +1480,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1501,86 +1501,86 @@
     <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1626,43 +1626,46 @@
     <xf numFmtId="179" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1674,16 +1677,16 @@
     <xf numFmtId="179" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1698,39 +1701,42 @@
     <xf numFmtId="179" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1740,10 +1746,7 @@
     <xf numFmtId="180" fontId="17" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2279,10 +2282,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD132"/>
+  <dimension ref="A1:XFD130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A109" sqref="A3:B109"/>
+      <selection activeCell="A110" sqref="A3:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2449,22 +2452,22 @@
         <v>0.333333333333333</v>
       </c>
       <c r="G4" s="11">
-        <v>0.958333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H4" s="11">
-        <v>0.333333333333333</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="I4" s="11">
-        <v>0.958333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="J4" s="11">
-        <v>0.333333333333333</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="K4" s="11">
-        <v>0.958333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="L4" s="11">
-        <v>0.333333333333333</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>5</v>
@@ -6143,28 +6146,28 @@
         <v>0.208333333333333</v>
       </c>
       <c r="E78" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="F78" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="G78" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H78" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="I78" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="J78" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="K78" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="L78" s="11">
-        <v>0.25</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="M78" s="12" t="s">
         <v>5</v>
@@ -6243,28 +6246,28 @@
         <v>0.208333333333333</v>
       </c>
       <c r="E80" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="F80" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="G80" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H80" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="I80" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="J80" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="K80" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="L80" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="M80" s="12" t="s">
         <v>5</v>
@@ -6293,28 +6296,28 @@
         <v>0.208333333333333</v>
       </c>
       <c r="E81" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="F81" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="G81" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H81" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="I81" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="J81" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="K81" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="L81" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="M81" s="12" t="s">
         <v>5</v>
@@ -6843,28 +6846,28 @@
         <v>0.333333333333333</v>
       </c>
       <c r="E92" s="11">
-        <v>0.958333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F92" s="11">
-        <v>0.333333333333333</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="G92" s="11">
-        <v>0.958333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="H92" s="11">
-        <v>0.333333333333333</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="I92" s="11">
-        <v>0.958333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="J92" s="11">
-        <v>0.333333333333333</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="K92" s="11">
-        <v>0.958333333333333</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="L92" s="11">
-        <v>0.333333333333333</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="M92" s="12" t="s">
         <v>5</v>
@@ -6893,28 +6896,28 @@
         <v>0.208333333333333</v>
       </c>
       <c r="E93" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="F93" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="G93" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="H93" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="I93" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="J93" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="K93" s="11">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="L93" s="11">
-        <v>0.208333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="M93" s="12" t="s">
         <v>5</v>
@@ -7343,28 +7346,28 @@
         <v>0.208333333333333</v>
       </c>
       <c r="E102" s="11">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="F102" s="11">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G102" s="11">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="H102" s="11">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I102" s="11">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="J102" s="11">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K102" s="11">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="L102" s="11">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M102" s="12" t="s">
         <v>5</v>
@@ -7443,28 +7446,28 @@
         <v>0.208333333333333</v>
       </c>
       <c r="E104" s="11">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="F104" s="11">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G104" s="11">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="H104" s="11">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I104" s="11">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="J104" s="11">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K104" s="11">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="L104" s="11">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>5</v>
@@ -7729,1010 +7732,904 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="15.25" spans="1:16384">
-      <c r="A111" s="15" t="s">
+    <row r="110" customFormat="1" ht="15.25" spans="1:16">
+      <c r="A110" s="8">
+        <v>10345545</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="10">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D110" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E110" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F110" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G110" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H110" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J110" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K110" s="11">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="L110" s="11">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M110" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N110" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O110" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P110" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="15.25" spans="1:16384">
+      <c r="A112" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B112" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="17" t="s">
+      <c r="C112" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F111" s="18"/>
-      <c r="G111" s="17" t="s">
+      <c r="D112" s="19"/>
+      <c r="E112" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="H111" s="18"/>
-      <c r="I111" s="17" t="s">
+      <c r="F112" s="19"/>
+      <c r="G112" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J111" s="18"/>
-      <c r="K111" s="17" t="s">
+      <c r="H112" s="19"/>
+      <c r="I112" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="L111" s="18"/>
-      <c r="M111" s="39" t="s">
+      <c r="J112" s="19"/>
+      <c r="K112" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="N111" s="40" t="s">
+      <c r="L112" s="19"/>
+      <c r="M112" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="XEL111" s="47"/>
-      <c r="XEM111" s="47"/>
-      <c r="XEN111" s="47"/>
-      <c r="XEO111" s="47"/>
-      <c r="XEP111" s="47"/>
-      <c r="XEQ111" s="47"/>
-      <c r="XER111" s="47"/>
-      <c r="XES111" s="47"/>
-      <c r="XET111" s="47"/>
-      <c r="XEU111" s="47"/>
-      <c r="XEV111" s="47"/>
-      <c r="XEW111" s="47"/>
-      <c r="XEX111" s="47"/>
-      <c r="XEY111" s="47"/>
-      <c r="XEZ111" s="47"/>
-      <c r="XFA111" s="47"/>
-      <c r="XFB111" s="47"/>
-      <c r="XFC111" s="47"/>
-      <c r="XFD111" s="47"/>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="15.25" spans="1:16384">
-      <c r="A112" s="19"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="41">
+      <c r="N112" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="XEL112" s="51"/>
+      <c r="XEM112" s="51"/>
+      <c r="XEN112" s="51"/>
+      <c r="XEO112" s="51"/>
+      <c r="XEP112" s="51"/>
+      <c r="XEQ112" s="51"/>
+      <c r="XER112" s="51"/>
+      <c r="XES112" s="51"/>
+      <c r="XET112" s="51"/>
+      <c r="XEU112" s="51"/>
+      <c r="XEV112" s="51"/>
+      <c r="XEW112" s="51"/>
+      <c r="XEX112" s="51"/>
+      <c r="XEY112" s="51"/>
+      <c r="XEZ112" s="51"/>
+      <c r="XFA112" s="51"/>
+      <c r="XFB112" s="51"/>
+      <c r="XFC112" s="51"/>
+      <c r="XFD112" s="51"/>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="15.25" spans="1:16384">
+      <c r="A113" s="20"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="44">
         <v>45976</v>
       </c>
-      <c r="N112" s="42">
+      <c r="N113" s="45">
         <v>45977</v>
       </c>
-      <c r="XEL112" s="47"/>
-      <c r="XEM112" s="47"/>
-      <c r="XEN112" s="47"/>
-      <c r="XEO112" s="47"/>
-      <c r="XEP112" s="47"/>
-      <c r="XEQ112" s="47"/>
-      <c r="XER112" s="47"/>
-      <c r="XES112" s="47"/>
-      <c r="XET112" s="47"/>
-      <c r="XEU112" s="47"/>
-      <c r="XEV112" s="47"/>
-      <c r="XEW112" s="47"/>
-      <c r="XEX112" s="47"/>
-      <c r="XEY112" s="47"/>
-      <c r="XEZ112" s="47"/>
-      <c r="XFA112" s="47"/>
-      <c r="XFB112" s="47"/>
-      <c r="XFC112" s="47"/>
-      <c r="XFD112" s="47"/>
-    </row>
-    <row r="113" s="2" customFormat="1" spans="1:16384">
-      <c r="A113" s="21">
+      <c r="XEL113" s="51"/>
+      <c r="XEM113" s="51"/>
+      <c r="XEN113" s="51"/>
+      <c r="XEO113" s="51"/>
+      <c r="XEP113" s="51"/>
+      <c r="XEQ113" s="51"/>
+      <c r="XER113" s="51"/>
+      <c r="XES113" s="51"/>
+      <c r="XET113" s="51"/>
+      <c r="XEU113" s="51"/>
+      <c r="XEV113" s="51"/>
+      <c r="XEW113" s="51"/>
+      <c r="XEX113" s="51"/>
+      <c r="XEY113" s="51"/>
+      <c r="XEZ113" s="51"/>
+      <c r="XFA113" s="51"/>
+      <c r="XFB113" s="51"/>
+      <c r="XFC113" s="51"/>
+      <c r="XFD113" s="51"/>
+    </row>
+    <row r="114" s="2" customFormat="1" spans="1:16384">
+      <c r="A114" s="22">
         <v>10325898</v>
       </c>
-      <c r="B113" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C113" s="23">
+      <c r="B114" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D114" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E114" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="F113" s="23">
+      <c r="F114" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="G113" s="23">
+      <c r="G114" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="H113" s="23">
+      <c r="H114" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="I113" s="23">
+      <c r="I114" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="J113" s="23">
+      <c r="J114" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="K113" s="23">
+      <c r="K114" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="L113" s="23">
+      <c r="L114" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="M113" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="N113" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="XEL113" s="47"/>
-      <c r="XEM113" s="47"/>
-      <c r="XEN113" s="47"/>
-      <c r="XEO113" s="47"/>
-      <c r="XEP113" s="47"/>
-      <c r="XEQ113" s="47"/>
-      <c r="XER113" s="47"/>
-      <c r="XES113" s="47"/>
-      <c r="XET113" s="47"/>
-      <c r="XEU113" s="47"/>
-      <c r="XEV113" s="47"/>
-      <c r="XEW113" s="47"/>
-      <c r="XEX113" s="47"/>
-      <c r="XEY113" s="47"/>
-      <c r="XEZ113" s="47"/>
-      <c r="XFA113" s="47"/>
-      <c r="XFB113" s="47"/>
-      <c r="XFC113" s="47"/>
-      <c r="XFD113" s="47"/>
-    </row>
-    <row r="114" ht="15.25"/>
-    <row r="115" ht="15.25" spans="1:16366">
-      <c r="A115" s="24" t="s">
+      <c r="M114" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="N114" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="XEL114" s="51"/>
+      <c r="XEM114" s="51"/>
+      <c r="XEN114" s="51"/>
+      <c r="XEO114" s="51"/>
+      <c r="XEP114" s="51"/>
+      <c r="XEQ114" s="51"/>
+      <c r="XER114" s="51"/>
+      <c r="XES114" s="51"/>
+      <c r="XET114" s="51"/>
+      <c r="XEU114" s="51"/>
+      <c r="XEV114" s="51"/>
+      <c r="XEW114" s="51"/>
+      <c r="XEX114" s="51"/>
+      <c r="XEY114" s="51"/>
+      <c r="XEZ114" s="51"/>
+      <c r="XFA114" s="51"/>
+      <c r="XFB114" s="51"/>
+      <c r="XFC114" s="51"/>
+      <c r="XFD114" s="51"/>
+    </row>
+    <row r="115" ht="15.25"/>
+    <row r="116" ht="15.25" spans="1:16366">
+      <c r="A116" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="25" t="s">
+      <c r="B116" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26" t="s">
+      <c r="C116" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26" t="s">
+      <c r="D116" s="27"/>
+      <c r="E116" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26" t="s">
+      <c r="F116" s="27"/>
+      <c r="G116" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J115" s="26"/>
-      <c r="K115" s="26" t="s">
+      <c r="H116" s="27"/>
+      <c r="I116" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="L115" s="26"/>
-      <c r="M115" s="26" t="s">
+      <c r="J116" s="27"/>
+      <c r="K116" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26" t="s">
+      <c r="L116" s="27"/>
+      <c r="M116" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="P115" s="26"/>
-      <c r="XEK115" s="3"/>
-      <c r="XEL115" s="3"/>
-    </row>
-    <row r="116" ht="15.25" spans="1:16366">
-      <c r="A116" s="24"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F116" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G116" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H116" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="I116" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="J116" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="K116" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="L116" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="M116" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="N116" s="27" t="s">
-        <v>128</v>
-      </c>
+      <c r="N116" s="27"/>
       <c r="O116" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="P116" s="27" t="s">
-        <v>128</v>
-      </c>
+      <c r="P116" s="27"/>
       <c r="XEK116" s="3"/>
       <c r="XEL116" s="3"/>
     </row>
     <row r="117" ht="15.25" spans="1:16366">
-      <c r="A117" s="28">
-        <v>10291155</v>
-      </c>
-      <c r="B117" s="29" t="s">
+      <c r="A117" s="25"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C117" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D117" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="E117" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="F117" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="G117" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="H117" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="I117" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J117" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K117" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L117" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M117" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="N117" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="O117" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="P117" s="45" t="s">
-        <v>5</v>
+      <c r="E117" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G117" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H117" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I117" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J117" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="K117" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="L117" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="M117" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="N117" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="O117" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="P117" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="XEK117" s="3"/>
       <c r="XEL117" s="3"/>
     </row>
     <row r="118" ht="15.25" spans="1:16366">
-      <c r="A118" s="28">
-        <v>10327950</v>
-      </c>
-      <c r="B118" s="29" t="s">
+      <c r="A118" s="29">
+        <v>10292490</v>
+      </c>
+      <c r="B118" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C118" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D118" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="E118" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="F118" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="G118" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="H118" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="I118" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J118" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K118" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L118" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M118" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="N118" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="O118" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="P118" s="45" t="s">
+      <c r="C118" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D118" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="E118" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="F118" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G118" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="H118" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I118" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J118" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K118" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="L118" s="31">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M118" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="N118" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="O118" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="P118" s="48" t="s">
         <v>5</v>
       </c>
       <c r="XEK118" s="3"/>
       <c r="XEL118" s="3"/>
     </row>
     <row r="119" ht="15.25" spans="1:16366">
-      <c r="A119" s="28">
-        <v>10292490</v>
-      </c>
-      <c r="B119" s="29" t="s">
+      <c r="A119" s="29">
+        <v>10331020</v>
+      </c>
+      <c r="B119" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C119" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D119" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E119" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="F119" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G119" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="H119" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I119" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J119" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K119" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="L119" s="30">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M119" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="N119" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="O119" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="P119" s="45" t="s">
+      <c r="C119" s="31">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="D119" s="31">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="E119" s="31">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F119" s="31">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="G119" s="31">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H119" s="31">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="I119" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="J119" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="K119" s="31">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="L119" s="31">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="M119" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="N119" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="O119" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="P119" s="48" t="s">
         <v>5</v>
       </c>
       <c r="XEK119" s="3"/>
       <c r="XEL119" s="3"/>
     </row>
     <row r="120" ht="15.25" spans="1:16366">
-      <c r="A120" s="28">
-        <v>10311872</v>
-      </c>
-      <c r="B120" s="29" t="s">
+      <c r="A120" s="29">
+        <v>10336050</v>
+      </c>
+      <c r="B120" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D120" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="E120" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="F120" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="G120" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="H120" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="I120" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J120" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K120" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L120" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M120" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="N120" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="O120" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="P120" s="45" t="s">
+      <c r="C120" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="D120" s="31">
+        <v>0</v>
+      </c>
+      <c r="E120" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="F120" s="31">
+        <v>0</v>
+      </c>
+      <c r="G120" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="H120" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="I120" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="J120" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="K120" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="L120" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="M120" s="48">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N120" s="48">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="O120" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="P120" s="48" t="s">
         <v>5</v>
       </c>
       <c r="XEK120" s="3"/>
       <c r="XEL120" s="3"/>
     </row>
     <row r="121" ht="15.25" spans="1:16366">
-      <c r="A121" s="28">
-        <v>10331020</v>
-      </c>
-      <c r="B121" s="29" t="s">
+      <c r="A121" s="29">
+        <v>10329382</v>
+      </c>
+      <c r="B121" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C121" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="D121" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="E121" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="F121" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="G121" s="30">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="H121" s="30">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="I121" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="J121" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="K121" s="30">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L121" s="30">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="M121" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="N121" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="O121" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="P121" s="45" t="s">
+      <c r="C121" s="31">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="D121" s="31">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="E121" s="31">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F121" s="31">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="G121" s="31">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="H121" s="31">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="I121" s="31">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="J121" s="31">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="K121" s="31">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="L121" s="31">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="M121" s="48">
+        <v>0.625</v>
+      </c>
+      <c r="N121" s="48">
+        <v>0.125</v>
+      </c>
+      <c r="O121" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="P121" s="48" t="s">
         <v>5</v>
       </c>
       <c r="XEK121" s="3"/>
       <c r="XEL121" s="3"/>
     </row>
-    <row r="122" ht="15.25" spans="1:16366">
-      <c r="A122" s="28">
-        <v>10336050</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="30">
-        <v>0.625</v>
-      </c>
-      <c r="D122" s="30">
+    <row r="122" ht="15.25"/>
+    <row r="123" ht="15.25" spans="1:16366">
+      <c r="A123" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E122" s="30">
-        <v>0.625</v>
-      </c>
-      <c r="F122" s="30">
-        <v>0</v>
-      </c>
-      <c r="G122" s="30">
-        <v>0.625</v>
-      </c>
-      <c r="H122" s="30">
-        <v>0.125</v>
-      </c>
-      <c r="I122" s="30">
-        <v>0.625</v>
-      </c>
-      <c r="J122" s="30">
-        <v>0.125</v>
-      </c>
-      <c r="K122" s="30">
-        <v>0.625</v>
-      </c>
-      <c r="L122" s="30">
-        <v>0.125</v>
-      </c>
-      <c r="M122" s="45">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="N122" s="45">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="O122" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="P122" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="XEK122" s="3"/>
-      <c r="XEL122" s="3"/>
-    </row>
-    <row r="123" ht="15.25" spans="1:16366">
-      <c r="A123" s="28">
-        <v>10329382</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C123" s="30">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="D123" s="30">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="E123" s="30">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="F123" s="30">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="G123" s="30">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="H123" s="30">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="I123" s="30">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="J123" s="30">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K123" s="30">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="L123" s="30">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="M123" s="45">
-        <v>0.625</v>
-      </c>
-      <c r="N123" s="45">
-        <v>0.125</v>
-      </c>
-      <c r="O123" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="P123" s="45" t="s">
-        <v>5</v>
-      </c>
+      <c r="B123" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J123" s="34"/>
+      <c r="K123" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="L123" s="34"/>
+      <c r="M123" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="N123" s="34"/>
+      <c r="O123" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="P123" s="34"/>
       <c r="XEK123" s="3"/>
       <c r="XEL123" s="3"/>
     </row>
-    <row r="124" ht="15.25"/>
+    <row r="124" ht="15.25" spans="1:16366">
+      <c r="A124" s="32"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E124" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F124" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G124" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H124" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="I124" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J124" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="K124" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="L124" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="M124" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="N124" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="O124" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="P124" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="XEK124" s="3"/>
+      <c r="XEL124" s="3"/>
+    </row>
     <row r="125" ht="15.25" spans="1:16366">
-      <c r="A125" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="H125" s="33"/>
-      <c r="I125" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="J125" s="33"/>
-      <c r="K125" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L125" s="33"/>
-      <c r="M125" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="N125" s="33"/>
-      <c r="O125" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="P125" s="33"/>
+      <c r="A125" s="36">
+        <v>10282876</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D125" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E125" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F125" s="39">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G125" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H125" s="39">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="I125" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J125" s="39">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K125" s="39">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L125" s="39">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="M125" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N125" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O125" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P125" s="49" t="s">
+        <v>5</v>
+      </c>
       <c r="XEK125" s="3"/>
       <c r="XEL125" s="3"/>
     </row>
     <row r="126" ht="15.25" spans="1:16366">
-      <c r="A126" s="31"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="D126" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E126" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="F126" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="G126" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H126" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="I126" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="J126" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="K126" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="L126" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="M126" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="N126" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="O126" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="P126" s="34" t="s">
-        <v>128</v>
+      <c r="A126" s="36">
+        <v>10266290</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D126" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E126" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F126" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G126" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H126" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="I126" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J126" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K126" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L126" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="M126" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N126" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O126" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P126" s="49" t="s">
+        <v>5</v>
       </c>
       <c r="XEK126" s="3"/>
       <c r="XEL126" s="3"/>
     </row>
     <row r="127" ht="15.25" spans="1:16366">
-      <c r="A127" s="35">
-        <v>10282876</v>
-      </c>
-      <c r="B127" s="36" t="s">
+      <c r="A127" s="36">
+        <v>10285481</v>
+      </c>
+      <c r="B127" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C127" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D127" s="37">
-        <v>0.208333333333333</v>
+      <c r="C127" s="38">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="D127" s="38">
+        <v>0.333333333333333</v>
       </c>
       <c r="E127" s="38">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="F127" s="38">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G127" s="38">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="H127" s="38">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I127" s="38">
-        <v>0.833333333333333</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="J127" s="38">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K127" s="38">
-        <v>0.833333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="L127" s="38">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="M127" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N127" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="O127" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="P127" s="46" t="s">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M127" s="50">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="N127" s="50">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="O127" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P127" s="49" t="s">
         <v>5</v>
       </c>
       <c r="XEK127" s="3"/>
       <c r="XEL127" s="3"/>
     </row>
     <row r="128" ht="15.25" spans="1:16366">
-      <c r="A128" s="35">
-        <v>10266290</v>
-      </c>
-      <c r="B128" s="36" t="s">
+      <c r="A128" s="40">
+        <v>10298710</v>
+      </c>
+      <c r="B128" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D128" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="E128" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F128" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="G128" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H128" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="I128" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J128" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="K128" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L128" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="M128" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N128" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="O128" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="P128" s="46" t="s">
+      <c r="C128" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D128" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E128" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F128" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G128" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H128" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="I128" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J128" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K128" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L128" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="M128" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N128" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O128" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P128" s="49" t="s">
         <v>5</v>
       </c>
       <c r="XEK128" s="3"/>
       <c r="XEL128" s="3"/>
     </row>
     <row r="129" ht="15.25" spans="1:16366">
-      <c r="A129" s="35">
-        <v>10285481</v>
-      </c>
-      <c r="B129" s="36" t="s">
+      <c r="A129" s="40">
+        <v>10313972</v>
+      </c>
+      <c r="B129" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C129" s="37">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="D129" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E129" s="37">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="F129" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G129" s="37">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="H129" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I129" s="37">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J129" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K129" s="37">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="L129" s="37">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M129" s="53">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="N129" s="53">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="O129" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="P129" s="46" t="s">
+      <c r="C129" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D129" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E129" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F129" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="G129" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H129" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="I129" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="J129" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K129" s="38">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L129" s="38">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="M129" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N129" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O129" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P129" s="49" t="s">
         <v>5</v>
       </c>
       <c r="XEK129" s="3"/>
       <c r="XEL129" s="3"/>
     </row>
     <row r="130" ht="15.25" spans="1:16366">
-      <c r="A130" s="48">
-        <v>10298710</v>
-      </c>
-      <c r="B130" s="49" t="s">
+      <c r="A130" s="52">
+        <v>10238619</v>
+      </c>
+      <c r="B130" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D130" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="E130" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F130" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="G130" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H130" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="I130" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J130" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="K130" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L130" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="M130" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N130" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="O130" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="P130" s="46" t="s">
+      <c r="C130" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="D130" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="E130" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="F130" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="G130" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="H130" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="I130" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="J130" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="K130" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="L130" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="M130" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="N130" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="O130" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="P130" s="55" t="s">
         <v>5</v>
       </c>
       <c r="XEK130" s="3"/>
       <c r="XEL130" s="3"/>
-    </row>
-    <row r="131" ht="15.25" spans="1:16366">
-      <c r="A131" s="48">
-        <v>10313972</v>
-      </c>
-      <c r="B131" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C131" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="D131" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="E131" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="F131" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="G131" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H131" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="I131" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="J131" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="K131" s="37">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L131" s="37">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="M131" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N131" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="O131" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="P131" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="XEK131" s="3"/>
-      <c r="XEL131" s="3"/>
-    </row>
-    <row r="132" ht="15.25" spans="1:16366">
-      <c r="A132" s="50">
-        <v>10238619</v>
-      </c>
-      <c r="B132" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" s="52">
-        <v>0.75</v>
-      </c>
-      <c r="D132" s="52">
-        <v>0.125</v>
-      </c>
-      <c r="E132" s="52">
-        <v>0.75</v>
-      </c>
-      <c r="F132" s="52">
-        <v>0.125</v>
-      </c>
-      <c r="G132" s="52">
-        <v>0.75</v>
-      </c>
-      <c r="H132" s="52">
-        <v>0.125</v>
-      </c>
-      <c r="I132" s="52">
-        <v>0.75</v>
-      </c>
-      <c r="J132" s="52">
-        <v>0.125</v>
-      </c>
-      <c r="K132" s="52">
-        <v>0.75</v>
-      </c>
-      <c r="L132" s="52">
-        <v>0.125</v>
-      </c>
-      <c r="M132" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="N132" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="O132" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="P132" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="XEK132" s="3"/>
-      <c r="XEL132" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -8743,33 +8640,33 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="O115:P115"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:P125"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="O123:P123"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A123:A124"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:F112"/>
-    <mergeCell ref="G111:H112"/>
-    <mergeCell ref="I111:J112"/>
-    <mergeCell ref="K111:L112"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C112:D113"/>
+    <mergeCell ref="E112:F113"/>
+    <mergeCell ref="G112:H113"/>
+    <mergeCell ref="I112:J113"/>
+    <mergeCell ref="K112:L113"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/Walmart.xlsx
+++ b/Accounts-Schedules/Walmart.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="140">
   <si>
     <t>CIM</t>
   </si>
@@ -1580,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1706,6 +1706,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -6175,11 +6178,11 @@
       <c r="N78" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O78" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="P78" s="12" t="s">
-        <v>5</v>
+      <c r="O78" s="42">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="P78" s="42">
+        <v>1.08333333333333</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" ht="15.25" spans="1:16">
@@ -7809,31 +7812,31 @@
         <v>117</v>
       </c>
       <c r="L112" s="19"/>
-      <c r="M112" s="42" t="s">
+      <c r="M112" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="N112" s="43" t="s">
+      <c r="N112" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="XEL112" s="51"/>
-      <c r="XEM112" s="51"/>
-      <c r="XEN112" s="51"/>
-      <c r="XEO112" s="51"/>
-      <c r="XEP112" s="51"/>
-      <c r="XEQ112" s="51"/>
-      <c r="XER112" s="51"/>
-      <c r="XES112" s="51"/>
-      <c r="XET112" s="51"/>
-      <c r="XEU112" s="51"/>
-      <c r="XEV112" s="51"/>
-      <c r="XEW112" s="51"/>
-      <c r="XEX112" s="51"/>
-      <c r="XEY112" s="51"/>
-      <c r="XEZ112" s="51"/>
-      <c r="XFA112" s="51"/>
-      <c r="XFB112" s="51"/>
-      <c r="XFC112" s="51"/>
-      <c r="XFD112" s="51"/>
+      <c r="XEL112" s="52"/>
+      <c r="XEM112" s="52"/>
+      <c r="XEN112" s="52"/>
+      <c r="XEO112" s="52"/>
+      <c r="XEP112" s="52"/>
+      <c r="XEQ112" s="52"/>
+      <c r="XER112" s="52"/>
+      <c r="XES112" s="52"/>
+      <c r="XET112" s="52"/>
+      <c r="XEU112" s="52"/>
+      <c r="XEV112" s="52"/>
+      <c r="XEW112" s="52"/>
+      <c r="XEX112" s="52"/>
+      <c r="XEY112" s="52"/>
+      <c r="XEZ112" s="52"/>
+      <c r="XFA112" s="52"/>
+      <c r="XFB112" s="52"/>
+      <c r="XFC112" s="52"/>
+      <c r="XFD112" s="52"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="15.25" spans="1:16384">
       <c r="A113" s="20"/>
@@ -7848,31 +7851,31 @@
       <c r="J113" s="19"/>
       <c r="K113" s="18"/>
       <c r="L113" s="19"/>
-      <c r="M113" s="44">
+      <c r="M113" s="45">
         <v>45976</v>
       </c>
-      <c r="N113" s="45">
+      <c r="N113" s="46">
         <v>45977</v>
       </c>
-      <c r="XEL113" s="51"/>
-      <c r="XEM113" s="51"/>
-      <c r="XEN113" s="51"/>
-      <c r="XEO113" s="51"/>
-      <c r="XEP113" s="51"/>
-      <c r="XEQ113" s="51"/>
-      <c r="XER113" s="51"/>
-      <c r="XES113" s="51"/>
-      <c r="XET113" s="51"/>
-      <c r="XEU113" s="51"/>
-      <c r="XEV113" s="51"/>
-      <c r="XEW113" s="51"/>
-      <c r="XEX113" s="51"/>
-      <c r="XEY113" s="51"/>
-      <c r="XEZ113" s="51"/>
-      <c r="XFA113" s="51"/>
-      <c r="XFB113" s="51"/>
-      <c r="XFC113" s="51"/>
-      <c r="XFD113" s="51"/>
+      <c r="XEL113" s="52"/>
+      <c r="XEM113" s="52"/>
+      <c r="XEN113" s="52"/>
+      <c r="XEO113" s="52"/>
+      <c r="XEP113" s="52"/>
+      <c r="XEQ113" s="52"/>
+      <c r="XER113" s="52"/>
+      <c r="XES113" s="52"/>
+      <c r="XET113" s="52"/>
+      <c r="XEU113" s="52"/>
+      <c r="XEV113" s="52"/>
+      <c r="XEW113" s="52"/>
+      <c r="XEX113" s="52"/>
+      <c r="XEY113" s="52"/>
+      <c r="XEZ113" s="52"/>
+      <c r="XFA113" s="52"/>
+      <c r="XFB113" s="52"/>
+      <c r="XFC113" s="52"/>
+      <c r="XFD113" s="52"/>
     </row>
     <row r="114" s="2" customFormat="1" spans="1:16384">
       <c r="A114" s="22">
@@ -7911,31 +7914,31 @@
       <c r="L114" s="24">
         <v>0.0416666666666667</v>
       </c>
-      <c r="M114" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="N114" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="XEL114" s="51"/>
-      <c r="XEM114" s="51"/>
-      <c r="XEN114" s="51"/>
-      <c r="XEO114" s="51"/>
-      <c r="XEP114" s="51"/>
-      <c r="XEQ114" s="51"/>
-      <c r="XER114" s="51"/>
-      <c r="XES114" s="51"/>
-      <c r="XET114" s="51"/>
-      <c r="XEU114" s="51"/>
-      <c r="XEV114" s="51"/>
-      <c r="XEW114" s="51"/>
-      <c r="XEX114" s="51"/>
-      <c r="XEY114" s="51"/>
-      <c r="XEZ114" s="51"/>
-      <c r="XFA114" s="51"/>
-      <c r="XFB114" s="51"/>
-      <c r="XFC114" s="51"/>
-      <c r="XFD114" s="51"/>
+      <c r="M114" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="N114" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="XEL114" s="52"/>
+      <c r="XEM114" s="52"/>
+      <c r="XEN114" s="52"/>
+      <c r="XEO114" s="52"/>
+      <c r="XEP114" s="52"/>
+      <c r="XEQ114" s="52"/>
+      <c r="XER114" s="52"/>
+      <c r="XES114" s="52"/>
+      <c r="XET114" s="52"/>
+      <c r="XEU114" s="52"/>
+      <c r="XEV114" s="52"/>
+      <c r="XEW114" s="52"/>
+      <c r="XEX114" s="52"/>
+      <c r="XEY114" s="52"/>
+      <c r="XEZ114" s="52"/>
+      <c r="XFA114" s="52"/>
+      <c r="XFB114" s="52"/>
+      <c r="XFC114" s="52"/>
+      <c r="XFD114" s="52"/>
     </row>
     <row r="115" ht="15.25"/>
     <row r="116" ht="15.25" spans="1:16366">
@@ -8061,16 +8064,16 @@
       <c r="L118" s="31">
         <v>0.333333333333333</v>
       </c>
-      <c r="M118" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="N118" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="O118" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="P118" s="48" t="s">
+      <c r="M118" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N118" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O118" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P118" s="49" t="s">
         <v>5</v>
       </c>
       <c r="XEK118" s="3"/>
@@ -8113,16 +8116,16 @@
       <c r="L119" s="31">
         <v>0.958333333333333</v>
       </c>
-      <c r="M119" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="N119" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="O119" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="P119" s="48" t="s">
+      <c r="M119" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="N119" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="O119" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P119" s="49" t="s">
         <v>5</v>
       </c>
       <c r="XEK119" s="3"/>
@@ -8165,16 +8168,16 @@
       <c r="L120" s="31">
         <v>0.125</v>
       </c>
-      <c r="M120" s="48">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="N120" s="48">
+      <c r="M120" s="49">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N120" s="49">
         <v>0.0833333333333333</v>
       </c>
-      <c r="O120" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="P120" s="48" t="s">
+      <c r="O120" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P120" s="49" t="s">
         <v>5</v>
       </c>
       <c r="XEK120" s="3"/>
@@ -8217,16 +8220,16 @@
       <c r="L121" s="31">
         <v>0.166666666666667</v>
       </c>
-      <c r="M121" s="48">
+      <c r="M121" s="49">
         <v>0.625</v>
       </c>
-      <c r="N121" s="48">
+      <c r="N121" s="49">
         <v>0.125</v>
       </c>
-      <c r="O121" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="P121" s="48" t="s">
+      <c r="O121" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P121" s="49" t="s">
         <v>5</v>
       </c>
       <c r="XEK121" s="3"/>
@@ -8356,16 +8359,16 @@
       <c r="L125" s="39">
         <v>0.208333333333333</v>
       </c>
-      <c r="M125" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N125" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="O125" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="P125" s="49" t="s">
+      <c r="M125" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="N125" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="O125" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P125" s="50" t="s">
         <v>5</v>
       </c>
       <c r="XEK125" s="3"/>
@@ -8408,16 +8411,16 @@
       <c r="L126" s="38">
         <v>0.208333333333333</v>
       </c>
-      <c r="M126" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N126" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="O126" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="P126" s="49" t="s">
+      <c r="M126" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="N126" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="O126" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P126" s="50" t="s">
         <v>5</v>
       </c>
       <c r="XEK126" s="3"/>
@@ -8460,16 +8463,16 @@
       <c r="L127" s="38">
         <v>0.333333333333333</v>
       </c>
-      <c r="M127" s="50">
+      <c r="M127" s="51">
         <v>0.708333333333333</v>
       </c>
-      <c r="N127" s="50">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="O127" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="P127" s="49" t="s">
+      <c r="N127" s="51">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="O127" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P127" s="50" t="s">
         <v>5</v>
       </c>
       <c r="XEK127" s="3"/>
@@ -8512,16 +8515,16 @@
       <c r="L128" s="38">
         <v>0.208333333333333</v>
       </c>
-      <c r="M128" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N128" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="O128" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="P128" s="49" t="s">
+      <c r="M128" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="N128" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="O128" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P128" s="50" t="s">
         <v>5</v>
       </c>
       <c r="XEK128" s="3"/>
@@ -8564,68 +8567,68 @@
       <c r="L129" s="38">
         <v>0.208333333333333</v>
       </c>
-      <c r="M129" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="N129" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="O129" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="P129" s="49" t="s">
+      <c r="M129" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="N129" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="O129" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="P129" s="50" t="s">
         <v>5</v>
       </c>
       <c r="XEK129" s="3"/>
       <c r="XEL129" s="3"/>
     </row>
     <row r="130" ht="15.25" spans="1:16366">
-      <c r="A130" s="52">
+      <c r="A130" s="53">
         <v>10238619</v>
       </c>
-      <c r="B130" s="53" t="s">
+      <c r="B130" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C130" s="54">
+      <c r="C130" s="55">
         <v>0.75</v>
       </c>
-      <c r="D130" s="54">
+      <c r="D130" s="55">
         <v>0.125</v>
       </c>
-      <c r="E130" s="54">
+      <c r="E130" s="55">
         <v>0.75</v>
       </c>
-      <c r="F130" s="54">
+      <c r="F130" s="55">
         <v>0.125</v>
       </c>
-      <c r="G130" s="54">
+      <c r="G130" s="55">
         <v>0.75</v>
       </c>
-      <c r="H130" s="54">
+      <c r="H130" s="55">
         <v>0.125</v>
       </c>
-      <c r="I130" s="54">
+      <c r="I130" s="55">
         <v>0.75</v>
       </c>
-      <c r="J130" s="54">
+      <c r="J130" s="55">
         <v>0.125</v>
       </c>
-      <c r="K130" s="54">
+      <c r="K130" s="55">
         <v>0.75</v>
       </c>
-      <c r="L130" s="54">
+      <c r="L130" s="55">
         <v>0.125</v>
       </c>
-      <c r="M130" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="N130" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="O130" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="P130" s="55" t="s">
+      <c r="M130" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="N130" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="O130" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="P130" s="56" t="s">
         <v>5</v>
       </c>
       <c r="XEK130" s="3"/>

--- a/Accounts-Schedules/Walmart.xlsx
+++ b/Accounts-Schedules/Walmart.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="163">
   <si>
     <t>CIM</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -533,6 +533,7 @@
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="181" formatCode="h:mm\ AM/PM"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1400,7 +1401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,6 +1496,9 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2170,29 +2174,29 @@
       <c r="H3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="J3" s="13">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="L3" s="13">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>5</v>
+      <c r="I3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="N3" s="13">
+        <v>1</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="14.5" spans="1:16">
@@ -2220,29 +2224,29 @@
       <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="J4" s="13">
-        <v>1</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="L4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>5</v>
+      <c r="I4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.0416666666666667</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="14.5" spans="1:16">
@@ -2359,40 +2363,40 @@
         <v>1</v>
       </c>
       <c r="E7" s="13">
-        <v>0.625</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="F7" s="13">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G7" s="13">
-        <v>0.625</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="H7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="N7" s="13">
-        <v>1</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="P7" s="13">
-        <v>1</v>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="14.5" spans="1:16">
@@ -2526,11 +2530,11 @@
       <c r="J10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>5</v>
+      <c r="K10" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
       </c>
       <c r="M10" s="13">
         <v>0.625</v>
@@ -2576,11 +2580,11 @@
       <c r="J11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1</v>
+      <c r="K11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="M11" s="13">
         <v>0.625</v>
@@ -2703,22 +2707,22 @@
         <v>16</v>
       </c>
       <c r="C14" s="13">
-        <v>0.958333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D14" s="13">
-        <v>0.333333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="E14" s="13">
-        <v>0.958333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="F14" s="13">
-        <v>0.333333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="G14" s="13">
-        <v>0.958333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="H14" s="13">
-        <v>0.333333333333333</v>
+        <v>1.125</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>5</v>
@@ -2733,16 +2737,16 @@
         <v>5</v>
       </c>
       <c r="M14" s="13">
-        <v>0.958333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="N14" s="13">
-        <v>0.333333333333333</v>
+        <v>1.20833333333333</v>
       </c>
       <c r="O14" s="13">
-        <v>0.958333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="P14" s="13">
-        <v>0.333333333333333</v>
+        <v>1.20833333333333</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="14.5" spans="1:16">
@@ -2870,29 +2874,29 @@
       <c r="H17" s="13">
         <v>1</v>
       </c>
-      <c r="I17" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="J17" s="13">
-        <v>1</v>
-      </c>
-      <c r="K17" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="L17" s="13">
-        <v>1</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>5</v>
+      <c r="I17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="N17" s="13">
+        <v>1</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="14.5" spans="1:16">
@@ -2920,29 +2924,29 @@
       <c r="H18" s="13">
         <v>1</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="N18" s="13">
-        <v>1</v>
-      </c>
-      <c r="O18" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="P18" s="13">
-        <v>1</v>
+      <c r="I18" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="14.5" spans="1:16">
@@ -3303,46 +3307,46 @@
         <v>28</v>
       </c>
       <c r="C26" s="13">
-        <v>0.958333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="D26" s="13">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E26" s="13">
-        <v>0.958333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="F26" s="13">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G26" s="13">
-        <v>0.958333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="H26" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="N26" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O26" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="P26" s="13">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K26" s="13">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="1" ht="14.5" spans="1:16">
@@ -3536,13 +3540,13 @@
         <v>0.666666666666667</v>
       </c>
       <c r="N30" s="13">
-        <v>1.04166666666667</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="O30" s="13">
         <v>0.666666666666667</v>
       </c>
       <c r="P30" s="13">
-        <v>1.04166666666667</v>
+        <v>0.0416666666666667</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="14.5" spans="1:16">
@@ -3670,29 +3674,29 @@
       <c r="H33" s="13">
         <v>1.16666666666667</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="13">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N33" s="13">
-        <v>1.16666666666667</v>
-      </c>
-      <c r="O33" s="13">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="P33" s="13">
-        <v>1.16666666666667</v>
+      <c r="I33" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="J33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="L33" s="13">
+        <v>1</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="14.5" spans="1:16">
@@ -4070,11 +4074,11 @@
       <c r="H41" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="I41" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J41" s="13">
-        <v>0.333333333333333</v>
+      <c r="I41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="K41" s="13">
         <v>0.958333333333333</v>
@@ -4082,11 +4086,11 @@
       <c r="L41" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="M41" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>5</v>
+      <c r="M41" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0.333333333333333</v>
       </c>
       <c r="O41" s="13" t="s">
         <v>5</v>
@@ -4220,29 +4224,29 @@
       <c r="H44" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="I44" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J44" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K44" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="L44" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="13" t="s">
-        <v>5</v>
+      <c r="I44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N44" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O44" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="P44" s="13">
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="14.5" spans="1:16">
@@ -4420,29 +4424,29 @@
       <c r="H48" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="I48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="N48" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O48" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="P48" s="13">
-        <v>0.333333333333333</v>
+      <c r="I48" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="L48" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="14.5" spans="1:16">
@@ -4453,22 +4457,22 @@
         <v>51</v>
       </c>
       <c r="C49" s="13">
-        <v>0.75</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="D49" s="13">
-        <v>1.125</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E49" s="13">
-        <v>0.75</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="F49" s="13">
-        <v>1.125</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G49" s="13">
-        <v>0.75</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="H49" s="13">
-        <v>1.125</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>5</v>
@@ -4483,16 +4487,16 @@
         <v>5</v>
       </c>
       <c r="M49" s="13">
-        <v>0.75</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="N49" s="13">
-        <v>1.20833333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="O49" s="13">
-        <v>0.75</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="P49" s="13">
-        <v>1.20833333333333</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="50" customFormat="1" ht="14.5" spans="1:16">
@@ -4520,11 +4524,11 @@
       <c r="H50" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="I50" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>5</v>
+      <c r="I50" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J50" s="13">
+        <v>0.333333333333333</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>5</v>
@@ -4532,11 +4536,11 @@
       <c r="L50" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M50" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="N50" s="13">
-        <v>0.333333333333333</v>
+      <c r="M50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="O50" s="13">
         <v>0.958333333333333</v>
@@ -4720,29 +4724,29 @@
       <c r="H54" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="I54" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J54" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K54" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="L54" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M54" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="13" t="s">
-        <v>5</v>
+      <c r="I54" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N54" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O54" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="P54" s="13">
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="55" customFormat="1" ht="14.5" spans="1:16">
@@ -4870,29 +4874,29 @@
       <c r="H57" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="I57" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J57" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K57" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="L57" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M57" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="13" t="s">
-        <v>5</v>
+      <c r="I57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="N57" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O57" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="P57" s="13">
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="58" customFormat="1" ht="14.5" spans="1:16">
@@ -4970,29 +4974,29 @@
       <c r="H59" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="I59" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="N59" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="O59" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="P59" s="13">
-        <v>0.333333333333333</v>
+      <c r="I59" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="J59" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K59" s="13">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="L59" s="13">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="1" ht="14.5" spans="1:16">
@@ -5159,16 +5163,16 @@
         <v>0.333333333333333</v>
       </c>
       <c r="E63" s="13">
-        <v>0.958333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="F63" s="13">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G63" s="13">
-        <v>0.958333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="H63" s="13">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>5</v>
@@ -5183,16 +5187,16 @@
         <v>5</v>
       </c>
       <c r="M63" s="13">
-        <v>0.958333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="N63" s="13">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O63" s="13">
-        <v>0.958333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="P63" s="13">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="14.5" spans="1:16">
@@ -5320,29 +5324,29 @@
       <c r="H66" s="13">
         <v>1</v>
       </c>
-      <c r="I66" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="N66" s="13">
-        <v>1</v>
-      </c>
-      <c r="O66" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="P66" s="13">
-        <v>1</v>
+      <c r="I66" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="J66" s="13">
+        <v>1</v>
+      </c>
+      <c r="K66" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="L66" s="13">
+        <v>1</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="1" ht="14.5" spans="1:16">
@@ -5770,29 +5774,29 @@
       <c r="H75" s="13">
         <v>0.333333333333333</v>
       </c>
-      <c r="I75" s="13">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="J75" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K75" s="13">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="L75" s="13">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="M75" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N75" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O75" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P75" s="13" t="s">
-        <v>5</v>
+      <c r="I75" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M75" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="N75" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="O75" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="P75" s="13">
+        <v>0.25</v>
       </c>
     </row>
     <row r="76" customFormat="1" ht="14.5" spans="1:16">
@@ -5870,29 +5874,29 @@
       <c r="H77" s="13">
         <v>1</v>
       </c>
-      <c r="I77" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="J77" s="13">
-        <v>1</v>
-      </c>
-      <c r="K77" s="13">
-        <v>0.625</v>
-      </c>
-      <c r="L77" s="13">
-        <v>1</v>
-      </c>
-      <c r="M77" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="N77" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O77" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P77" s="13" t="s">
-        <v>5</v>
+      <c r="I77" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M77" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="N77" s="13">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="O77" s="13">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P77" s="13">
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="78" customFormat="1" ht="14.5" spans="1:16">
@@ -6103,22 +6107,22 @@
         <v>84</v>
       </c>
       <c r="C82" s="13">
-        <v>0.875</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="D82" s="13">
-        <v>1.25</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="E82" s="13">
-        <v>0.875</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="F82" s="13">
-        <v>1.25</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="G82" s="13">
-        <v>0.875</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="H82" s="13">
-        <v>1.25</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="I82" s="13" t="s">
         <v>5</v>
@@ -6133,16 +6137,16 @@
         <v>5</v>
       </c>
       <c r="M82" s="13">
-        <v>0.875</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="N82" s="13">
-        <v>1.25</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="O82" s="13">
-        <v>0.875</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="P82" s="13">
-        <v>1.25</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="83" customFormat="1" ht="14.5" spans="1:16">
@@ -8620,29 +8624,29 @@
       <c r="H132" s="13">
         <v>1.04166666666667</v>
       </c>
-      <c r="I132" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J132" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K132" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L132" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M132" s="13">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="N132" s="13">
-        <v>1.04166666666667</v>
-      </c>
-      <c r="O132" s="13">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="P132" s="13">
-        <v>1.04166666666667</v>
+      <c r="I132" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="J132" s="13">
+        <v>1</v>
+      </c>
+      <c r="K132" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="L132" s="13">
+        <v>1</v>
+      </c>
+      <c r="M132" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N132" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O132" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P132" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="133" customFormat="1" ht="14.5" spans="1:16">
@@ -8968,11 +8972,11 @@
       <c r="J141" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K141" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="L141" s="31" t="s">
-        <v>5</v>
+      <c r="K141" s="32">
+        <v>0.625</v>
+      </c>
+      <c r="L141" s="32">
+        <v>0.0416666666666667</v>
       </c>
       <c r="M141" s="20">
         <v>0.625</v>
@@ -9517,16 +9521,16 @@
       <c r="H153" s="26">
         <v>0</v>
       </c>
-      <c r="I153" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="J153" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K153" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="L153" s="32" t="s">
+      <c r="I153" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J153" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K153" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L153" s="33" t="s">
         <v>5</v>
       </c>
       <c r="M153" s="25">
@@ -9569,16 +9573,16 @@
       <c r="H154" s="29">
         <v>0.208333333333333</v>
       </c>
-      <c r="I154" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="J154" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K154" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L154" s="33" t="s">
+      <c r="I154" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J154" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K154" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L154" s="34" t="s">
         <v>5</v>
       </c>
       <c r="M154" s="29">
@@ -9621,16 +9625,16 @@
       <c r="H155" s="29">
         <v>0</v>
       </c>
-      <c r="I155" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="J155" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K155" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L155" s="33" t="s">
+      <c r="I155" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J155" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K155" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L155" s="34" t="s">
         <v>5</v>
       </c>
       <c r="M155" s="29">
@@ -9673,16 +9677,16 @@
       <c r="H156" s="29">
         <v>0.125</v>
       </c>
-      <c r="I156" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="J156" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K156" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L156" s="33" t="s">
+      <c r="I156" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J156" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K156" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L156" s="34" t="s">
         <v>5</v>
       </c>
       <c r="M156" s="29">
@@ -9737,16 +9741,16 @@
       <c r="L157" s="29">
         <v>0.333333333333333</v>
       </c>
-      <c r="M157" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="N157" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O157" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="P157" s="33" t="s">
+      <c r="M157" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N157" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O157" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P157" s="34" t="s">
         <v>5</v>
       </c>
       <c r="XES157" s="2"/>
@@ -9789,16 +9793,16 @@
       <c r="L158" s="29">
         <v>0</v>
       </c>
-      <c r="M158" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="N158" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O158" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="P158" s="33" t="s">
+      <c r="M158" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N158" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O158" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P158" s="34" t="s">
         <v>5</v>
       </c>
       <c r="XES158" s="2"/>
